--- a/AI Task split-up List .xlsx
+++ b/AI Task split-up List .xlsx
@@ -1,19 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="ZohoSheetWriter"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KISHORE\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F65E79D8-769E-470C-A412-286D3273E3E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="8192" windowWidth="16384"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <extLst/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="78">
   <si>
     <t>MODULE-I</t>
   </si>
@@ -204,9 +212,6 @@
     <t>TOTAL DAYS</t>
   </si>
   <si>
-    <t>TARGET DATE:</t>
-  </si>
-  <si>
     <t xml:space="preserve">Get Unprocessed fax from Qsecure for a client ID and get patient details for new setup </t>
   </si>
   <si>
@@ -217,16 +222,49 @@
   </si>
   <si>
     <t>Update edited patient data extracted in DB in separate collection.</t>
+  </si>
+  <si>
+    <t>Create User Login API's with Login and Session handling - Create Entity</t>
+  </si>
+  <si>
+    <t>Create Roles to Add for each Users on client and admin level</t>
+  </si>
+  <si>
+    <t>Uploading Pdf files to Db and getting their status - Multiple file</t>
+  </si>
+  <si>
+    <t>Get List API to get the status List of Files for the current session</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background Job running to Analyze the multiple files </t>
+  </si>
+  <si>
+    <t>Tiff conversion for easily storing the files in DB- in API</t>
+  </si>
+  <si>
+    <t>Storing the extracted Page numbers for the respective types of documents</t>
+  </si>
+  <si>
+    <t>Storing the extracted content from the Open AI to the database</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get List API from qsecure for getting the clients - Mapping if same </t>
+  </si>
+  <si>
+    <t>Displaying API to provide page number and extracted Content for the files</t>
+  </si>
+  <si>
+    <t>API to check if patient is available in  the qsecure client - requires new setup or not</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt formatCode="d/m/yyyy" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -314,54 +352,54 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="15">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="2" numFmtId="164" xfId="0">
+    <xf numFmtId="164" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -369,7 +407,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -381,32 +419,576 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D39BEB0-FC8C-447A-ADD3-35404B11BDCD}">
+  <dimension ref="A1:E24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="85.5" customWidth="1"/>
+    <col min="2" max="2" width="15.09765625" customWidth="1"/>
+    <col min="3" max="3" width="20.5" customWidth="1"/>
+    <col min="4" max="4" width="18.59765625" customWidth="1"/>
+    <col min="5" max="5" width="10.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="7">
+        <v>150</v>
+      </c>
+      <c r="C4" s="7">
+        <v>120</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="8">
+        <v>150</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="8">
+        <v>150</v>
+      </c>
+      <c r="C6" s="8">
+        <v>240</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="8">
+        <v>240</v>
+      </c>
+      <c r="C7" s="8">
+        <v>480</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="8">
+        <v>240</v>
+      </c>
+      <c r="C8" s="8">
+        <v>240</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="8">
+        <v>150</v>
+      </c>
+      <c r="C9" s="8">
+        <v>120</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="8">
+        <v>120</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="8">
+        <v>120</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.0" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="81.75"/>
-    <col min="2" max="2" width="33.12"/>
-    <col min="3" max="3" width="27.02"/>
-    <col min="4" max="4" width="23.58"/>
-    <col min="5" max="1025" width="13.24"/>
+    <col min="1" max="1" width="81.69921875"/>
+    <col min="2" max="2" width="33.09765625"/>
+    <col min="3" max="3" width="27"/>
+    <col min="4" max="4" width="23.59765625"/>
+    <col min="5" max="1025" width="13.19921875"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.0">
+    <row r="1" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="1" s="6">
+    <row r="3" spans="1:5" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -423,15 +1005,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" customFormat="1" s="6">
+    <row r="4" spans="1:5" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="7">
-        <v>150.0</v>
+        <v>150</v>
       </c>
       <c r="C4" s="7">
-        <v>120.0</v>
+        <v>120</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>8</v>
@@ -440,12 +1022,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" customFormat="1" s="6">
+    <row r="5" spans="1:5" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="8">
-        <v>150.0</v>
+        <v>150</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>11</v>
@@ -457,15 +1039,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" customFormat="1" s="6">
+    <row r="6" spans="1:5" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="8">
-        <v>150.0</v>
+        <v>150</v>
       </c>
       <c r="C6" s="8">
-        <v>240.0</v>
+        <v>240</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>15</v>
@@ -474,54 +1056,54 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" customFormat="1" s="6">
+    <row r="7" spans="1:5" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="8">
-        <v>240.0</v>
+        <v>240</v>
       </c>
       <c r="C7" s="8">
-        <v>480.0</v>
+        <v>480</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" customFormat="1" s="6">
+    <row r="8" spans="1:5" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="8">
-        <v>240.0</v>
+        <v>240</v>
       </c>
       <c r="C8" s="8">
-        <v>240.0</v>
+        <v>240</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" customFormat="1" s="6">
+    <row r="9" spans="1:5" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>21</v>
       </c>
       <c r="B9" s="8">
-        <v>150.0</v>
+        <v>150</v>
       </c>
       <c r="C9" s="8">
-        <v>120.0</v>
+        <v>120</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" customFormat="1" s="6">
+    <row r="10" spans="1:5" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>23</v>
       </c>
       <c r="B10" s="8">
-        <v>120.0</v>
+        <v>120</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>24</v>
@@ -530,12 +1112,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" customFormat="1" s="6">
+    <row r="11" spans="1:5" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>26</v>
       </c>
       <c r="B11" s="8">
-        <v>120.0</v>
+        <v>120</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>27</v>
@@ -544,18 +1126,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" customFormat="1" s="6">
+    <row r="12" spans="1:5" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>29</v>
       </c>
       <c r="B12" s="11">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C12" s="12">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="14" customFormat="1" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>30</v>
       </c>
@@ -572,12 +1154,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" customFormat="1" s="6">
+    <row r="15" spans="1:5" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>35</v>
       </c>
       <c r="B15" s="8">
-        <v>240.0</v>
+        <v>240</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>36</v>
@@ -589,12 +1171,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" customFormat="1" s="6">
+    <row r="16" spans="1:5" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>39</v>
       </c>
       <c r="B16" s="8">
-        <v>150.0</v>
+        <v>150</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>40</v>
@@ -606,12 +1188,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" customFormat="1" s="6">
+    <row r="17" spans="1:5" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>43</v>
       </c>
       <c r="B17" s="8">
-        <v>240.0</v>
+        <v>240</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>44</v>
@@ -623,12 +1205,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" customFormat="1" s="6">
+    <row r="18" spans="1:5" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B18" s="8">
-        <v>240.0</v>
+        <v>240</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>48</v>
@@ -637,12 +1219,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" customFormat="1" s="6">
+    <row r="19" spans="1:5" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>50</v>
       </c>
       <c r="B19" s="8">
-        <v>480.0</v>
+        <v>480</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>51</v>
@@ -651,12 +1233,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" customFormat="1" s="6">
+    <row r="20" spans="1:5" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>53</v>
       </c>
       <c r="B20" s="8">
-        <v>480.0</v>
+        <v>480</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>54</v>
@@ -665,12 +1247,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="21" customFormat="1" s="6">
+    <row r="21" spans="1:5" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>56</v>
       </c>
       <c r="B21" s="8">
-        <v>480.0</v>
+        <v>480</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>57</v>
@@ -679,12 +1261,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" customFormat="1" s="6">
+    <row r="22" spans="1:5" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>59</v>
       </c>
       <c r="B22" s="8">
-        <v>240.0</v>
+        <v>240</v>
       </c>
       <c r="C22" s="13" t="s">
         <v>60</v>
@@ -693,64 +1275,51 @@
         <v>61</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>62</v>
       </c>
       <c r="B23" s="11">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="10"/>
+      <c r="B25" s="14"/>
+    </row>
+    <row r="28" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>63</v>
       </c>
-      <c r="B25" s="14">
-        <v>45615</v>
-      </c>
-      <c r="D25">
-        <v>9.0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="D26">
-        <f>D25/2</f>
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s">
+      <c r="B28">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>64</v>
       </c>
-      <c r="B28">
-        <v>480.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
+      <c r="B29">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>65</v>
       </c>
-      <c r="B29">
-        <v>480.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
+      <c r="B30">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>66</v>
       </c>
-      <c r="B30">
-        <v>480.0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s">
-        <v>67</v>
-      </c>
       <c r="B31">
-        <v>240.0</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
-  <extLst/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>